--- a/mosip_master/xlsx/status_list.xlsx
+++ b/mosip_master/xlsx/status_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -65,15 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مفعل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معطل</t>
   </si>
 </sst>
 </file>
@@ -164,33 +155,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -210,137 +193,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/status_list.xlsx
+++ b/mosip_master/xlsx/status_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -74,33 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">معطل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಸಕ್ರಿಯಗೊಳಿಸುವ ಸ್ಥಿತಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನಿಷ್ಕ್ರಿಯಗೊಳಿಸಲಾಗಿದೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सक्रिय</t>
-  </si>
-  <si>
-    <t xml:space="preserve">निष्क्रिय</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">செயல்படுத்தப்பட்டது</t>
-  </si>
-  <si>
-    <t xml:space="preserve">செயலிழக்கப்பட்டது</t>
   </si>
 </sst>
 </file>
@@ -237,10 +210,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,108 +344,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
